--- a/public/template/template_mk.xlsx
+++ b/public/template/template_mk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadam/Herd/ummaluku/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F2B4A9-AD15-D34D-BDDD-AD178CBFB87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C4A8A-AF1B-A044-9D43-2D44B6760111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2380" windowWidth="27640" windowHeight="16940" xr2:uid="{FA775B75-CF86-ED47-A27E-C75A09D09994}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>nama_mata_kuliah</t>
   </si>
@@ -56,17 +56,368 @@
     <t>Wajib</t>
   </si>
   <si>
-    <t>INF101</t>
-  </si>
-  <si>
-    <t>Dasar Pemrograman</t>
+    <t>UMM1101</t>
+  </si>
+  <si>
+    <t>Pancasila dan Kewarganegaraan</t>
+  </si>
+  <si>
+    <t>UMM0001</t>
+  </si>
+  <si>
+    <t>Al-Islam dan Kemuhammadiyaan I</t>
+  </si>
+  <si>
+    <t>UMM1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Inggris </t>
+  </si>
+  <si>
+    <t>KIP1101</t>
+  </si>
+  <si>
+    <t>Landasan Pendidikan</t>
+  </si>
+  <si>
+    <t>BIO1102</t>
+  </si>
+  <si>
+    <t>Pembelajaran Biologi Berbasis IT</t>
+  </si>
+  <si>
+    <t>BIO1103</t>
+  </si>
+  <si>
+    <t>Biologi Umum</t>
+  </si>
+  <si>
+    <t>BIO1104</t>
+  </si>
+  <si>
+    <t>Fisika Untuk Biologi</t>
+  </si>
+  <si>
+    <t>BIO1105</t>
+  </si>
+  <si>
+    <t>Kimia Untuk Biologi</t>
+  </si>
+  <si>
+    <t>BIO1106</t>
+  </si>
+  <si>
+    <t>Teknik Laboratorium</t>
+  </si>
+  <si>
+    <t>UMM1102</t>
+  </si>
+  <si>
+    <t>Al-Islam dan Kemuhammadiyaan II</t>
+  </si>
+  <si>
+    <t>UMM0002</t>
+  </si>
+  <si>
+    <t>Bahasa Indonesia</t>
+  </si>
+  <si>
+    <t>BIO1207</t>
+  </si>
+  <si>
+    <t>Belajar dan Pembelajaran</t>
+  </si>
+  <si>
+    <t>BIO1202</t>
+  </si>
+  <si>
+    <t>Biostatistik</t>
+  </si>
+  <si>
+    <t>KIP1102</t>
+  </si>
+  <si>
+    <t>Pengantar Ilmu Pendidikan</t>
+  </si>
+  <si>
+    <t>BIO1208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struktur Perkembangan Hewan </t>
+  </si>
+  <si>
+    <t>BIO1209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struktur Perkembangan Tumbuhan </t>
+  </si>
+  <si>
+    <t>BIO1210</t>
+  </si>
+  <si>
+    <t>Biologi Sel</t>
+  </si>
+  <si>
+    <t>BIO1211</t>
+  </si>
+  <si>
+    <t>Pengetahuan Lingkungan</t>
+  </si>
+  <si>
+    <t>BIO1212</t>
+  </si>
+  <si>
+    <t>Morfologi Tumbuhan</t>
+  </si>
+  <si>
+    <t>Al-Islam dan Kemuhammadiyaan III</t>
+  </si>
+  <si>
+    <t>BIO1313</t>
+  </si>
+  <si>
+    <t>Mikrobiologi Dan Parasitologi Dasar</t>
+  </si>
+  <si>
+    <t>BIO1314</t>
+  </si>
+  <si>
+    <t>Zoologi</t>
+  </si>
+  <si>
+    <t>BIO1315</t>
+  </si>
+  <si>
+    <t>Botani Herbal</t>
+  </si>
+  <si>
+    <t>KIP1103</t>
+  </si>
+  <si>
+    <t>Perkembangan Peserta Didik</t>
+  </si>
+  <si>
+    <t>BIO1316</t>
+  </si>
+  <si>
+    <t>Biologi Laut</t>
+  </si>
+  <si>
+    <t>BIO1317</t>
+  </si>
+  <si>
+    <t>Biosistematika</t>
+  </si>
+  <si>
+    <t>BIO1318</t>
+  </si>
+  <si>
+    <t>Pengembangan Kurikulum IPA SMP</t>
+  </si>
+  <si>
+    <t>MKP-001</t>
+  </si>
+  <si>
+    <t>Budidaya Tanaman Herbal Endemik</t>
+  </si>
+  <si>
+    <t>MKP-002</t>
+  </si>
+  <si>
+    <t>Biodiversitas Kepulauan Maluku</t>
+  </si>
+  <si>
+    <t>Pilihan</t>
+  </si>
+  <si>
+    <t>Al-Islam dan Kemuhammadiyaan IV</t>
+  </si>
+  <si>
+    <t>BIO1419</t>
+  </si>
+  <si>
+    <t>Mikrobiologi dan Parasitologi Lanjut</t>
+  </si>
+  <si>
+    <t>BIO1203</t>
+  </si>
+  <si>
+    <t>Biokimia</t>
+  </si>
+  <si>
+    <t>BIO1421</t>
+  </si>
+  <si>
+    <t>Kemampuan Dasar Mengajar</t>
+  </si>
+  <si>
+    <t>BIO1422</t>
+  </si>
+  <si>
+    <t>Strategi Pembelajaran Biologi</t>
+  </si>
+  <si>
+    <t>BIO1423</t>
+  </si>
+  <si>
+    <t>Ekologi Peraian</t>
+  </si>
+  <si>
+    <t>BIO1424</t>
+  </si>
+  <si>
+    <t>Genetika</t>
+  </si>
+  <si>
+    <t>BIO1425</t>
+  </si>
+  <si>
+    <t>Anatomi dan Fisiologi Tumbuhan</t>
+  </si>
+  <si>
+    <t>MKP-003</t>
+  </si>
+  <si>
+    <t>Ilmu Pangan dan Gizi</t>
+  </si>
+  <si>
+    <t>MKP-004</t>
+  </si>
+  <si>
+    <t>Etnobotani</t>
+  </si>
+  <si>
+    <t>BIO1526</t>
+  </si>
+  <si>
+    <t>Evaluasi  Hasil Belajar Biologi</t>
+  </si>
+  <si>
+    <t>BIO1527</t>
+  </si>
+  <si>
+    <t>Analisis Data Biologi</t>
+  </si>
+  <si>
+    <t>BIO1528</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian Pendidikan Biologi</t>
+  </si>
+  <si>
+    <t>BIO1529</t>
+  </si>
+  <si>
+    <t>Bioteknologi</t>
+  </si>
+  <si>
+    <t>BIO1530</t>
+  </si>
+  <si>
+    <t>Pengembangan Kurikulum IPA SMA</t>
+  </si>
+  <si>
+    <t>BIO1531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Pembelajaran Biologi </t>
+  </si>
+  <si>
+    <t>BIO1532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kultur Jaringan </t>
+  </si>
+  <si>
+    <t>MKP-005</t>
+  </si>
+  <si>
+    <t>Mikroteknik</t>
+  </si>
+  <si>
+    <t>MKP-006</t>
+  </si>
+  <si>
+    <t>Penelitian Tindakan Kelas</t>
+  </si>
+  <si>
+    <t>BIO1634</t>
+  </si>
+  <si>
+    <t>Biologi Molekuler</t>
+  </si>
+  <si>
+    <t>BIO1635</t>
+  </si>
+  <si>
+    <t>Pengembangan Bahan Ajar Biologi</t>
+  </si>
+  <si>
+    <t>BIO1636</t>
+  </si>
+  <si>
+    <t>Anatomi dan Fisiologi Hewan/Manusia</t>
+  </si>
+  <si>
+    <t>KIP1104</t>
+  </si>
+  <si>
+    <t>Pengembangan Profesi Guru</t>
+  </si>
+  <si>
+    <t>BIO1637</t>
+  </si>
+  <si>
+    <t>Kewirausahaan Biologi</t>
+  </si>
+  <si>
+    <t>KIP1105</t>
+  </si>
+  <si>
+    <t>Microteaching</t>
+  </si>
+  <si>
+    <t>BIO1638</t>
+  </si>
+  <si>
+    <t>Biodiversitas Tumbuhan dan Hewan</t>
+  </si>
+  <si>
+    <t>MKP-007</t>
+  </si>
+  <si>
+    <t>Manajemen Berbasis Sekolah</t>
+  </si>
+  <si>
+    <t>MKP-008</t>
+  </si>
+  <si>
+    <t>Ekowisata Herbal</t>
+  </si>
+  <si>
+    <t>KIP 1106</t>
+  </si>
+  <si>
+    <t>Magang/PPKT (PLP )</t>
+  </si>
+  <si>
+    <t>BIO1739</t>
+  </si>
+  <si>
+    <t>Seminar Biologi</t>
+  </si>
+  <si>
+    <t>BIO1801</t>
+  </si>
+  <si>
+    <t>Skripsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,27 +427,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -105,9 +492,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,26 +858,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E944B-3205-0C45-A23D-A74A79B554D2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -474,20 +890,1023 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" s="1">
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4</v>
+      </c>
+      <c r="D59" s="10">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+      <c r="D61" s="10">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
         <v>5</v>
       </c>
     </row>
